--- a/digital-objects/omap/7-lung-cell-dive/v1.3/raw/omap-7-lung-cell-dive.xlsx
+++ b/digital-objects/omap/7-lung-cell-dive/v1.3/raw/omap-7-lung-cell-dive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/7-lung-cell-dive/v1.3/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCAF827-2AC8-AF4A-91E1-0840C7303B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237C841C-0229-3B45-B22A-47696ACECBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1440" windowWidth="34560" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7760" yWindow="2900" windowWidth="34560" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-7-lung-cell-dive" sheetId="1" r:id="rId1"/>
